--- a/data/trans_orig/P34-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P34-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>51534</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38662</v>
+        <v>38170</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>67257</v>
+        <v>67749</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08878186050400344</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06660695936740547</v>
+        <v>0.06575825821757325</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1158702842894238</v>
+        <v>0.1167164672864539</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -765,19 +765,19 @@
         <v>17385</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9825</v>
+        <v>10592</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26873</v>
+        <v>28589</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01905745997630424</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01077044175637944</v>
+        <v>0.01161133297021351</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0294589572688411</v>
+        <v>0.03134029057890109</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>61</v>
@@ -786,19 +786,19 @@
         <v>68918</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>53955</v>
+        <v>51569</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>90628</v>
+        <v>87170</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04617107451465485</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03614659030809259</v>
+        <v>0.03454824847378252</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06071551393316862</v>
+        <v>0.05839866796234582</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>87206</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>70337</v>
+        <v>70915</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>106274</v>
+        <v>106922</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1502372772483301</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1211750654902528</v>
+        <v>0.1221719132492761</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1830882455612554</v>
+        <v>0.1842048568154834</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>58</v>
@@ -836,19 +836,19 @@
         <v>62359</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>47597</v>
+        <v>48308</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>77559</v>
+        <v>79836</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06835932792543464</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05217715004389136</v>
+        <v>0.05295679646779874</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08502251039699106</v>
+        <v>0.08751797697821571</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>139</v>
@@ -857,19 +857,19 @@
         <v>149565</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>126432</v>
+        <v>127151</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>173555</v>
+        <v>173737</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1001990732703897</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08470159777656248</v>
+        <v>0.08518317525801782</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1162713142608983</v>
+        <v>0.1163934606419611</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>211330</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>190946</v>
+        <v>188901</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>234907</v>
+        <v>235884</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3640763263995782</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3289603689896789</v>
+        <v>0.3254369628002573</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4046948813969447</v>
+        <v>0.4063779155933929</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>486</v>
@@ -907,19 +907,19 @@
         <v>507105</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>476582</v>
+        <v>474689</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>537559</v>
+        <v>535111</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5559022137025077</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5224424889373077</v>
+        <v>0.5203667769248955</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5892869116283477</v>
+        <v>0.5866033187852325</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>693</v>
@@ -928,19 +928,19 @@
         <v>718435</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>679336</v>
+        <v>680601</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>754460</v>
+        <v>760423</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4813071920537738</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4551133928266619</v>
+        <v>0.4559612101138654</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.505441830278215</v>
+        <v>0.5094367730360653</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>230385</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>206739</v>
+        <v>207660</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>251084</v>
+        <v>253834</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3969045358480883</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3561672425628326</v>
+        <v>0.3577548614688519</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.432564159254607</v>
+        <v>0.437303143108156</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>315</v>
@@ -978,19 +978,19 @@
         <v>325372</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>294475</v>
+        <v>295894</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>357200</v>
+        <v>355337</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3566809983957534</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3228115807678239</v>
+        <v>0.3243669461168641</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3915724268201488</v>
+        <v>0.3895304570294867</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>552</v>
@@ -999,19 +999,19 @@
         <v>555756</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>521491</v>
+        <v>520141</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>592194</v>
+        <v>591806</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3723226601611817</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3493671955719097</v>
+        <v>0.3484623310776824</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3967336560301554</v>
+        <v>0.3964738871883444</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>97148</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>78242</v>
+        <v>80114</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>115515</v>
+        <v>115984</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0912426545863621</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07348625277109598</v>
+        <v>0.07524426021684176</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1084937594640587</v>
+        <v>0.1089341554054031</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>28</v>
@@ -1124,19 +1124,19 @@
         <v>28745</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>18891</v>
+        <v>19573</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>40798</v>
+        <v>40865</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02731496563896128</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01795150718989816</v>
+        <v>0.01859908891949707</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03876813264732246</v>
+        <v>0.03883225341983731</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>124</v>
@@ -1145,19 +1145,19 @@
         <v>125893</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>105996</v>
+        <v>104227</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>148987</v>
+        <v>146991</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05946540381269955</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05006705026433484</v>
+        <v>0.04923180088767753</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07037421737085524</v>
+        <v>0.06943141887837334</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>191987</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>169196</v>
+        <v>166654</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>221210</v>
+        <v>218138</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1803174787982729</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1589118518285879</v>
+        <v>0.1565244888608239</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2077642667402932</v>
+        <v>0.2048788288281494</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>77</v>
@@ -1195,19 +1195,19 @@
         <v>78548</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62712</v>
+        <v>61259</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>98242</v>
+        <v>97153</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07463992690674709</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05959234288388986</v>
+        <v>0.05821100326784582</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09335376903285648</v>
+        <v>0.09231887384335015</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>265</v>
@@ -1216,19 +1216,19 @@
         <v>270535</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>237580</v>
+        <v>237892</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>301090</v>
+        <v>302109</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1277871570723177</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1122207625225206</v>
+        <v>0.1123684527664549</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1422198730705792</v>
+        <v>0.1427013663550811</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>393788</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>361505</v>
+        <v>364150</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>426152</v>
+        <v>425705</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3698523936420166</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3395315033406658</v>
+        <v>0.3420158427678316</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4002493602361372</v>
+        <v>0.3998293932681111</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>683</v>
@@ -1266,19 +1266,19 @@
         <v>703357</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>671314</v>
+        <v>671397</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>733766</v>
+        <v>734182</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6683628532618406</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6379138539032989</v>
+        <v>0.637992507821876</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6972588538204905</v>
+        <v>0.6976545081473224</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1066</v>
@@ -1287,19 +1287,19 @@
         <v>1097145</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1050472</v>
+        <v>1047431</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1142385</v>
+        <v>1141996</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5182363238307849</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4961903827266219</v>
+        <v>0.4947543040076665</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5396056039118389</v>
+        <v>0.5394216644085276</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>381794</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>350585</v>
+        <v>351082</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>417453</v>
+        <v>412837</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3585874729733484</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3292753125977072</v>
+        <v>0.3297421412691268</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3920791809222782</v>
+        <v>0.3877439574789305</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>235</v>
@@ -1337,19 +1337,19 @@
         <v>241708</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>216451</v>
+        <v>213734</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>269347</v>
+        <v>270361</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.229682254192451</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2056819985502008</v>
+        <v>0.2031002614622749</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2559459125956418</v>
+        <v>0.2569092845741032</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>610</v>
@@ -1358,19 +1358,19 @@
         <v>623502</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>576744</v>
+        <v>582265</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>664213</v>
+        <v>664773</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2945111152841978</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2724252031552096</v>
+        <v>0.2750329767097833</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3137409554520946</v>
+        <v>0.3140054887472059</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>77802</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>63324</v>
+        <v>62521</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>95284</v>
+        <v>96108</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07023381142323833</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05716480792696758</v>
+        <v>0.05643985117249577</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08601582940214385</v>
+        <v>0.08675985995129835</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>81</v>
@@ -1483,19 +1483,19 @@
         <v>80525</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>63747</v>
+        <v>64716</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>99389</v>
+        <v>97467</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08156707035878029</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06457254030292646</v>
+        <v>0.06555384416260726</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1006753260060527</v>
+        <v>0.09872849566847863</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>156</v>
@@ -1504,19 +1504,19 @@
         <v>158326</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>137037</v>
+        <v>136090</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>183814</v>
+        <v>182846</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07557441459233666</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06541238072104871</v>
+        <v>0.06496048978422402</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08774041645184111</v>
+        <v>0.08727844906254449</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>181857</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>155209</v>
+        <v>158150</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>209480</v>
+        <v>208750</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1641673039146452</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1401114363183343</v>
+        <v>0.1427668132496368</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1891037392132342</v>
+        <v>0.1884449481681921</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>66</v>
@@ -1554,19 +1554,19 @@
         <v>68992</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>54539</v>
+        <v>53712</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>86781</v>
+        <v>87123</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06988485883177611</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0552451939223641</v>
+        <v>0.05440736527827199</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08790499836875956</v>
+        <v>0.08825098218755792</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>236</v>
@@ -1575,19 +1575,19 @@
         <v>250848</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>221366</v>
+        <v>219251</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>281209</v>
+        <v>281584</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1197383247601306</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1056655346777646</v>
+        <v>0.1046559650200791</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1342304675497133</v>
+        <v>0.1344093256568844</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>422484</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>389881</v>
+        <v>388009</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>457166</v>
+        <v>456051</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3813887036123356</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3519568773058413</v>
+        <v>0.3502666617862331</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.412697075875562</v>
+        <v>0.4116904465742166</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>515</v>
@@ -1625,19 +1625,19 @@
         <v>520100</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>485736</v>
+        <v>491188</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>547788</v>
+        <v>552251</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5268333107970036</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4920241385777089</v>
+        <v>0.4975474853988965</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5548796202309575</v>
+        <v>0.5594004931598212</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>929</v>
@@ -1646,19 +1646,19 @@
         <v>942584</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>892888</v>
+        <v>899433</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>989309</v>
+        <v>987405</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4499269708906659</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4262054181036581</v>
+        <v>0.4293293797398923</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4722305762939644</v>
+        <v>0.4713213535232499</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>425610</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>392267</v>
+        <v>392138</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>457128</v>
+        <v>460372</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3842101810497809</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3541112770259655</v>
+        <v>0.3539944788456366</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4126628991161707</v>
+        <v>0.4155914979564769</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>314</v>
@@ -1696,19 +1696,19 @@
         <v>317603</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>289469</v>
+        <v>292090</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>349095</v>
+        <v>346902</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.32171476001244</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2932169868854759</v>
+        <v>0.2958715625346846</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3536146221832444</v>
+        <v>0.3513929881988855</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>745</v>
@@ -1717,19 +1717,19 @@
         <v>743213</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>699640</v>
+        <v>700530</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>787800</v>
+        <v>788948</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3547602897568669</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3339614844480076</v>
+        <v>0.3343865762413302</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3760434607282102</v>
+        <v>0.3765913219492626</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>13824</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7392</v>
+        <v>7948</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23208</v>
+        <v>22688</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03103260382542782</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01659280348841456</v>
+        <v>0.01784228196770062</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05209826721928586</v>
+        <v>0.05093154318985054</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -1842,19 +1842,19 @@
         <v>7694</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3751</v>
+        <v>3609</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14652</v>
+        <v>13581</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02267437908134998</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0110535676219291</v>
+        <v>0.01063642603009252</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04318211976539283</v>
+        <v>0.04002566128600803</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -1863,19 +1863,19 @@
         <v>21518</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13982</v>
+        <v>13208</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32626</v>
+        <v>31739</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02741880312818293</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01781648453771881</v>
+        <v>0.01683044815457963</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04157349786288149</v>
+        <v>0.04044367507630051</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>56998</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>44578</v>
+        <v>43877</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>73557</v>
+        <v>73967</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1279498094642059</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1000708955491421</v>
+        <v>0.09849541717535575</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1651224921590163</v>
+        <v>0.1660440265342742</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -1913,19 +1913,19 @@
         <v>17797</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10778</v>
+        <v>10852</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>28688</v>
+        <v>27770</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05245048970191758</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03176426752124448</v>
+        <v>0.03198178660911728</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08454676175959083</v>
+        <v>0.08184200411571874</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>71</v>
@@ -1934,19 +1934,19 @@
         <v>74795</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>60176</v>
+        <v>57799</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>93464</v>
+        <v>90929</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09530657447680137</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07667905881228261</v>
+        <v>0.073650176821155</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1190959260587151</v>
+        <v>0.1158656665356172</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>180339</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>157700</v>
+        <v>159972</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>200749</v>
+        <v>201018</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4048297647426515</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3540088629752297</v>
+        <v>0.3591089388130813</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4506457663565204</v>
+        <v>0.4512492920771438</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>171</v>
@@ -1984,19 +1984,19 @@
         <v>174334</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>157251</v>
+        <v>155641</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>193663</v>
+        <v>192863</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5137880278491528</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4634433480166245</v>
+        <v>0.4586964606604126</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5707535941729582</v>
+        <v>0.5683961135732977</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>346</v>
@@ -2005,19 +2005,19 @@
         <v>354673</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>325501</v>
+        <v>328794</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>381825</v>
+        <v>384159</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4519394631823659</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4147677574375644</v>
+        <v>0.4189635701646193</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4865370429767846</v>
+        <v>0.4895118273287558</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>194308</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>173048</v>
+        <v>172443</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>216906</v>
+        <v>214204</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4361878219677147</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3884624098453616</v>
+        <v>0.3871052498325839</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4869163879295921</v>
+        <v>0.480851045924529</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>141</v>
@@ -2055,19 +2055,19 @@
         <v>139486</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>121901</v>
+        <v>121381</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>157116</v>
+        <v>157889</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4110871033675796</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3592594794716753</v>
+        <v>0.3577278814604086</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4630442886048565</v>
+        <v>0.4653234786756101</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>333</v>
@@ -2076,19 +2076,19 @@
         <v>333795</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>307689</v>
+        <v>304970</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>361970</v>
+        <v>363786</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4253351592126498</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3920701187572298</v>
+        <v>0.388605409434027</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4612380704376611</v>
+        <v>0.4635521949239554</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>240307</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>210437</v>
+        <v>211809</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>269192</v>
+        <v>270517</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07513371692860041</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06579448885757179</v>
+        <v>0.06622349195456069</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08416471292921418</v>
+        <v>0.08457920750729477</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>133</v>
@@ -2201,19 +2201,19 @@
         <v>134348</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>113580</v>
+        <v>114496</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>157215</v>
+        <v>158781</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04082149309793122</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03451120179556783</v>
+        <v>0.03478937820829527</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04776959372362239</v>
+        <v>0.04824541407270825</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>362</v>
@@ -2222,19 +2222,19 @@
         <v>374655</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>336967</v>
+        <v>334070</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>412801</v>
+        <v>411453</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05773249169468073</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05192501728725038</v>
+        <v>0.05147860567351834</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06361055903991193</v>
+        <v>0.06340289284546673</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>518047</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>473986</v>
+        <v>474006</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>560745</v>
+        <v>565757</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1619711516819178</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1481951860685936</v>
+        <v>0.1482013804106835</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1753209508182529</v>
+        <v>0.1768878599800889</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>218</v>
@@ -2272,19 +2272,19 @@
         <v>227695</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>199083</v>
+        <v>199905</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>260680</v>
+        <v>261183</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06918501371162852</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06049115959476995</v>
+        <v>0.06074086469998489</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07920728534434236</v>
+        <v>0.07936032561832579</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>711</v>
@@ -2293,19 +2293,19 @@
         <v>745742</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>696389</v>
+        <v>694524</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>801233</v>
+        <v>804211</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1149152542450579</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1073101787752924</v>
+        <v>0.1070227671988953</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.123466008326002</v>
+        <v>0.1239249498540156</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>1207941</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1151273</v>
+        <v>1158538</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1264152</v>
+        <v>1263388</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3776713154644821</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3599537569924459</v>
+        <v>0.3622252206799375</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3952463761763144</v>
+        <v>0.3950074746114329</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1855</v>
@@ -2343,19 +2343,19 @@
         <v>1904896</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1850400</v>
+        <v>1855567</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1961340</v>
+        <v>1969683</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5788007709309203</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5622421746655203</v>
+        <v>0.5638123409107046</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5959512032299233</v>
+        <v>0.5984863609708736</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3034</v>
@@ -2364,19 +2364,19 @@
         <v>3112836</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3032571</v>
+        <v>3030222</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3189186</v>
+        <v>3186781</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4796728346029415</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4673042859765715</v>
+        <v>0.466942406225919</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4914379978900213</v>
+        <v>0.4910673979136387</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>1232096</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1178438</v>
+        <v>1180044</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1291796</v>
+        <v>1288657</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3852238159249997</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.36844728814923</v>
+        <v>0.3689492423916942</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4038892010316536</v>
+        <v>0.4029080038124149</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1005</v>
@@ -2414,19 +2414,19 @@
         <v>1024169</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>971635</v>
+        <v>973141</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1075749</v>
+        <v>1077750</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.31119272225952</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2952304404449189</v>
+        <v>0.2956880158752066</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3268652395810349</v>
+        <v>0.3274731845888933</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2240</v>
@@ -2435,19 +2435,19 @@
         <v>2256265</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2177622</v>
+        <v>2184648</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2334914</v>
+        <v>2334310</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3476794194573199</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3355609036506889</v>
+        <v>0.3366435478401214</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3597987407511795</v>
+        <v>0.3597057515383583</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>39441</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27720</v>
+        <v>28990</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53115</v>
+        <v>54573</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03820448883681043</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02685102527596792</v>
+        <v>0.02808133275162089</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05144977358780833</v>
+        <v>0.05286123504823516</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -2800,19 +2800,19 @@
         <v>5898</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1987</v>
+        <v>2844</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11764</v>
+        <v>12905</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005326317392144569</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001794129784212652</v>
+        <v>0.002568610303140924</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01062428005213554</v>
+        <v>0.01165446365151992</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>43</v>
@@ -2821,19 +2821,19 @@
         <v>45339</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33576</v>
+        <v>32345</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>60645</v>
+        <v>59278</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02118998560587869</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01569253649603634</v>
+        <v>0.01511715663776422</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02834366342275969</v>
+        <v>0.02770443309992301</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>119463</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>99535</v>
+        <v>99026</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>143811</v>
+        <v>141448</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1157167878896673</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09641350848392141</v>
+        <v>0.09592121071544024</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1393014827617645</v>
+        <v>0.1370123648651591</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>108</v>
@@ -2871,19 +2871,19 @@
         <v>118087</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>98019</v>
+        <v>97730</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>141201</v>
+        <v>140189</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.10664748463259</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08852351699626085</v>
+        <v>0.08826196184966768</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1275223324253194</v>
+        <v>0.1266084013968569</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>223</v>
@@ -2892,19 +2892,19 @@
         <v>237550</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>207231</v>
+        <v>207367</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>266395</v>
+        <v>266572</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1110234097974718</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09685312798814084</v>
+        <v>0.09691666223760143</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1245046924565189</v>
+        <v>0.1245871460875912</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>561018</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>526062</v>
+        <v>529265</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>595847</v>
+        <v>595072</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5434259642809929</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5095662502788605</v>
+        <v>0.5126679705930622</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5771621552720327</v>
+        <v>0.5764117117869473</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>610</v>
@@ -2942,19 +2942,19 @@
         <v>662536</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>628473</v>
+        <v>630499</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>699199</v>
+        <v>694730</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.598352912617822</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5675892991479673</v>
+        <v>0.5694191846149093</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6314633564529325</v>
+        <v>0.6274281555653686</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1135</v>
@@ -2963,19 +2963,19 @@
         <v>1223555</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1174084</v>
+        <v>1179559</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1270742</v>
+        <v>1274739</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5718507427549132</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5487293488541251</v>
+        <v>0.5512880870369424</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5939041112210315</v>
+        <v>0.5957724200226718</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>312451</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>282854</v>
+        <v>280981</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>346233</v>
+        <v>342945</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3026527589925294</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2739839030180234</v>
+        <v>0.2721704330517282</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3353758605188419</v>
+        <v>0.3321905017844397</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>296</v>
@@ -3013,19 +3013,19 @@
         <v>320746</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>288400</v>
+        <v>289810</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>352151</v>
+        <v>349997</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2896732853574435</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2604613469323146</v>
+        <v>0.2617346551592318</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3180360854387675</v>
+        <v>0.3160905959657527</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>586</v>
@@ -3034,19 +3034,19 @@
         <v>633197</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>586655</v>
+        <v>589289</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>677732</v>
+        <v>678427</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2959358618417363</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2741836398796791</v>
+        <v>0.2754148271678517</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3167503027677808</v>
+        <v>0.3170752385645604</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>51746</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>38023</v>
+        <v>39129</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>66993</v>
+        <v>68149</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05330571865893444</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03916886945933494</v>
+        <v>0.04030884410716872</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06901223703537407</v>
+        <v>0.07020377981939489</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -3159,19 +3159,19 @@
         <v>7694</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15729</v>
+        <v>15215</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.007065572688039355</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.002782011692375849</v>
+        <v>0.002781426683672118</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01444356136304664</v>
+        <v>0.0139711193598652</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>56</v>
@@ -3180,19 +3180,19 @@
         <v>59440</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>45270</v>
+        <v>44350</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>75545</v>
+        <v>75587</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02885809441421362</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02197835448083051</v>
+        <v>0.02153180497418325</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03667707290104236</v>
+        <v>0.03669745903562488</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>139520</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>117799</v>
+        <v>119128</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>162460</v>
+        <v>162124</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.143725751946826</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1213504078577407</v>
+        <v>0.1227188518631758</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1673578452472105</v>
+        <v>0.1670114642496231</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>91</v>
@@ -3230,19 +3230,19 @@
         <v>96080</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>79071</v>
+        <v>78757</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>116185</v>
+        <v>118902</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08822724373305445</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07260848051975845</v>
+        <v>0.0723197034187371</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1066886762591063</v>
+        <v>0.1091837197420276</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>226</v>
@@ -3251,19 +3251,19 @@
         <v>235600</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>203538</v>
+        <v>208819</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>263806</v>
+        <v>264786</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1143831396677287</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09881698204316051</v>
+        <v>0.1013809263207009</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1280771161768716</v>
+        <v>0.1285530592027681</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>491024</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>458522</v>
+        <v>454472</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>521609</v>
+        <v>522205</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5058260813918624</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4723446971594342</v>
+        <v>0.4681722067746053</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5373330307563279</v>
+        <v>0.5379467725908479</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>621</v>
@@ -3301,19 +3301,19 @@
         <v>667860</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>634506</v>
+        <v>633761</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>702903</v>
+        <v>697989</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6132747217452706</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5826464895676257</v>
+        <v>0.5819621925756027</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6454535623795776</v>
+        <v>0.6409403294353446</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1082</v>
@@ -3322,19 +3322,19 @@
         <v>1158884</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1117188</v>
+        <v>1113774</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1208241</v>
+        <v>1208668</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5626352442915578</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5423917786203384</v>
+        <v>0.5407345051939796</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5865977710720206</v>
+        <v>0.5868051634130129</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>288447</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>261619</v>
+        <v>259287</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>319464</v>
+        <v>317657</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2971424480023772</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2695052280457038</v>
+        <v>0.2671037248919895</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3290944281641517</v>
+        <v>0.3272326595920159</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>296</v>
@@ -3372,19 +3372,19 @@
         <v>317372</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>286878</v>
+        <v>289337</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>349958</v>
+        <v>349134</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2914324618336355</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2634306189009586</v>
+        <v>0.2656884483486582</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3213554502638582</v>
+        <v>0.3205986948428417</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>569</v>
@@ -3393,19 +3393,19 @@
         <v>605819</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>562142</v>
+        <v>563453</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>645790</v>
+        <v>649100</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2941235216265</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2729184795071197</v>
+        <v>0.273554841848406</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3135293008563473</v>
+        <v>0.3151365257488049</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>30390</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>20841</v>
+        <v>21873</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>42978</v>
+        <v>41704</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03445860433729138</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0236316971878013</v>
+        <v>0.02480150841404412</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04873250150977106</v>
+        <v>0.04728735457741554</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -3518,19 +3518,19 @@
         <v>4133</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9847</v>
+        <v>10428</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.004734410764596262</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001206481414736505</v>
+        <v>0.001211170393965239</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01128141493020297</v>
+        <v>0.01194706108235132</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>35</v>
@@ -3539,19 +3539,19 @@
         <v>34522</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>24567</v>
+        <v>24796</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>47112</v>
+        <v>46689</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01967318487397607</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01399981198835289</v>
+        <v>0.01413023606469234</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02684738277380985</v>
+        <v>0.02660681859137399</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>114899</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>96693</v>
+        <v>93749</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>138007</v>
+        <v>137264</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1302827124639356</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.109639219108715</v>
+        <v>0.106300633373723</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1564834801500427</v>
+        <v>0.155641375162294</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>56</v>
@@ -3589,19 +3589,19 @@
         <v>59955</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>45994</v>
+        <v>45578</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>75672</v>
+        <v>75928</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06868680057346534</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05269245590897278</v>
+        <v>0.05221671277877102</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08669327075034586</v>
+        <v>0.0869863892812978</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>162</v>
@@ -3610,19 +3610,19 @@
         <v>174854</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>147169</v>
+        <v>150317</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>200565</v>
+        <v>203967</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.09964365097691147</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.08386661358376449</v>
+        <v>0.08566057384735477</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1142952374108017</v>
+        <v>0.1162342197267362</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>446609</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>413690</v>
+        <v>417529</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>477231</v>
+        <v>476330</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5064025707598389</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4690761435795725</v>
+        <v>0.4734294430300289</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5411252014143892</v>
+        <v>0.5401034894096047</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>513</v>
@@ -3660,19 +3660,19 @@
         <v>544663</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>511738</v>
+        <v>515976</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>570364</v>
+        <v>573229</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6239908195847055</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5862708138698489</v>
+        <v>0.5911256074914202</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6534350203680187</v>
+        <v>0.6567170906500706</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>935</v>
@@ -3681,19 +3681,19 @@
         <v>991271</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>949747</v>
+        <v>948690</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1033323</v>
+        <v>1037420</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5648933613873576</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.541230026396151</v>
+        <v>0.5406274630179077</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5888570247269758</v>
+        <v>0.5911921816899836</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>290026</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>260988</v>
+        <v>261593</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>317570</v>
+        <v>319652</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3288561124389341</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2959297668625772</v>
+        <v>0.2966163418508864</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3600878757935456</v>
+        <v>0.3624479810274028</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>245</v>
@@ -3731,19 +3731,19 @@
         <v>264120</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>236460</v>
+        <v>237116</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>294720</v>
+        <v>294195</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3025879690772329</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2708995130108861</v>
+        <v>0.2716508877550641</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3376447901337892</v>
+        <v>0.3370435618203991</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>513</v>
@@ -3752,19 +3752,19 @@
         <v>554146</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>512585</v>
+        <v>515511</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>595942</v>
+        <v>597104</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3157898027617549</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2921055166453833</v>
+        <v>0.2937727906443561</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3396077285243802</v>
+        <v>0.3402699513132506</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>14754</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8555</v>
+        <v>8819</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24887</v>
+        <v>24810</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02948670801272246</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01709638524046909</v>
+        <v>0.01762539871223561</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0497361907786108</v>
+        <v>0.04958359117827135</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -3877,19 +3877,19 @@
         <v>6069</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2113</v>
+        <v>2103</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14959</v>
+        <v>14178</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01355157089570213</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004718655987303221</v>
+        <v>0.004696743946822315</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03340307456986327</v>
+        <v>0.03165891463105434</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -3898,19 +3898,19 @@
         <v>20823</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13089</v>
+        <v>12832</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32951</v>
+        <v>31144</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0219606408622522</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01380458152819995</v>
+        <v>0.01353339212896177</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03475105253825964</v>
+        <v>0.032845544510488</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>87251</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>70076</v>
+        <v>69502</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>106006</v>
+        <v>106019</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1743728272603099</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1400472609812218</v>
+        <v>0.1389003905696875</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2118554231576102</v>
+        <v>0.2118800604942231</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>47</v>
@@ -3948,19 +3948,19 @@
         <v>54249</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>40575</v>
+        <v>40472</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>70777</v>
+        <v>69684</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1211380959254433</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09060305650083543</v>
+        <v>0.09037271986588828</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.158045232843064</v>
+        <v>0.1556045723957196</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>125</v>
@@ -3969,19 +3969,19 @@
         <v>141500</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>120295</v>
+        <v>119587</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>164843</v>
+        <v>164774</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1492303914079371</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1268663446365673</v>
+        <v>0.1261196507026987</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1738487643972242</v>
+        <v>0.1737761561177222</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>222158</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>199804</v>
+        <v>195809</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>245135</v>
+        <v>244177</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4439868366803972</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3993113609055292</v>
+        <v>0.3913282616315583</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4899063877828326</v>
+        <v>0.4879926282710144</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>233</v>
@@ -4019,19 +4019,19 @@
         <v>256705</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>235351</v>
+        <v>234220</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>279355</v>
+        <v>277926</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5732219174524623</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5255383225061463</v>
+        <v>0.5230119191620852</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6237979668772731</v>
+        <v>0.6206070345477891</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>438</v>
@@ -4040,19 +4040,19 @@
         <v>478863</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>447951</v>
+        <v>446972</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>510830</v>
+        <v>514021</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5050237696508793</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4724226600598302</v>
+        <v>0.4713901566280721</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5387366469159096</v>
+        <v>0.5421019363759401</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>176207</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>154037</v>
+        <v>153968</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>198952</v>
+        <v>199157</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3521536280465704</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3078452862885044</v>
+        <v>0.3077072172341224</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3976087943369931</v>
+        <v>0.3980186925597011</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>122</v>
@@ -4090,19 +4090,19 @@
         <v>130806</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>112667</v>
+        <v>112566</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>152437</v>
+        <v>153346</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2920884157263922</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2515854028729235</v>
+        <v>0.2513587846208527</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3403918675214625</v>
+        <v>0.3424219322197031</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>283</v>
@@ -4111,19 +4111,19 @@
         <v>307013</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>277085</v>
+        <v>277824</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>334952</v>
+        <v>341254</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3237851980789315</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2922224590647057</v>
+        <v>0.2930023126654714</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3532512248496837</v>
+        <v>0.359896732433116</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>136331</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>114768</v>
+        <v>115518</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>160580</v>
+        <v>162388</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04027030119095133</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03390086461737764</v>
+        <v>0.03412234480888587</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04743297741182328</v>
+        <v>0.04796705623832129</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>22</v>
@@ -4236,19 +4236,19 @@
         <v>23793</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>14568</v>
+        <v>15074</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>35836</v>
+        <v>36423</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.006765312840159473</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.004142158511129363</v>
+        <v>0.004286096054809084</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01018945047221228</v>
+        <v>0.01035633358373207</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>153</v>
@@ -4257,19 +4257,19 @@
         <v>160125</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>133887</v>
+        <v>137017</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>186665</v>
+        <v>187804</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0231984817378071</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0193971590397706</v>
+        <v>0.01985062725562862</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02704359882349469</v>
+        <v>0.02720857263019874</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>461133</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>423014</v>
+        <v>421315</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>502789</v>
+        <v>505117</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1362121602094098</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1249523484689392</v>
+        <v>0.1244505486018607</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1485167697296665</v>
+        <v>0.1492042356096829</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>302</v>
@@ -4307,19 +4307,19 @@
         <v>328371</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>290304</v>
+        <v>293515</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>363020</v>
+        <v>365280</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09336754041929028</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08254376379088753</v>
+        <v>0.08345683694206628</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1032193556198892</v>
+        <v>0.1038619537016076</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>736</v>
@@ -4328,19 +4328,19 @@
         <v>789504</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>740922</v>
+        <v>736853</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>847257</v>
+        <v>846596</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1143815120104755</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1073429513579103</v>
+        <v>0.1067534468220639</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1227486436995668</v>
+        <v>0.1226527773872089</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>1720809</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1660314</v>
+        <v>1661991</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1780189</v>
+        <v>1783486</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5083022976732365</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4904330697347949</v>
+        <v>0.4909284882539864</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5258424311460178</v>
+        <v>0.5268162892226171</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1977</v>
@@ -4378,19 +4378,19 @@
         <v>2131765</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2072146</v>
+        <v>2070365</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2189341</v>
+        <v>2189217</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6061363486103184</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5891845443266833</v>
+        <v>0.5886782258140091</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6225072446289178</v>
+        <v>0.6224720264031626</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3590</v>
@@ -4399,19 +4399,19 @@
         <v>3852574</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3762470</v>
+        <v>3766088</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3939972</v>
+        <v>3935304</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5581517480440528</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5450977652519567</v>
+        <v>0.5456219125759133</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.570813856607052</v>
+        <v>0.5701374652792167</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>1067131</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1011638</v>
+        <v>1010143</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1124521</v>
+        <v>1125975</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3152152409264024</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2988235619024288</v>
+        <v>0.2983816949245819</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3321674688573494</v>
+        <v>0.3325968330261187</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>959</v>
@@ -4449,19 +4449,19 @@
         <v>1033043</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>981073</v>
+        <v>983671</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1094502</v>
+        <v>1095828</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2937307981302319</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2789537647118807</v>
+        <v>0.279692401104437</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3112058027641383</v>
+        <v>0.311582685607207</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1951</v>
@@ -4470,19 +4470,19 @@
         <v>2100174</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2024790</v>
+        <v>2016790</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2189712</v>
+        <v>2178886</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3042682582076646</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2933467246968337</v>
+        <v>0.2921878062624474</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.317240270627492</v>
+        <v>0.3156718436661979</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>29514</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19898</v>
+        <v>18676</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42359</v>
+        <v>41221</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02640965788845277</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01780453363993911</v>
+        <v>0.01671104816904713</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03790284898701287</v>
+        <v>0.03688470604375296</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -4835,19 +4835,19 @@
         <v>6209</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13018</v>
+        <v>12646</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004949503400027134</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001716611075798179</v>
+        <v>0.001714749298720338</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01037745684604305</v>
+        <v>0.01008096928874184</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -4856,19 +4856,19 @@
         <v>35724</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25173</v>
+        <v>25486</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49156</v>
+        <v>50669</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01506016710793625</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01061226170615906</v>
+        <v>0.01074419577528569</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02072295746052005</v>
+        <v>0.02136073004028714</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>125722</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>104297</v>
+        <v>102974</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>146689</v>
+        <v>149285</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1124969857432434</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09332583569235491</v>
+        <v>0.09214142430537028</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1312579674340655</v>
+        <v>0.1335806922734672</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>100</v>
@@ -4906,19 +4906,19 @@
         <v>104063</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>85510</v>
+        <v>86741</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>125099</v>
+        <v>125597</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08295266788841577</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06816281933790423</v>
+        <v>0.06914441434069871</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09972104568879125</v>
+        <v>0.1001180801757966</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>214</v>
@@ -4927,19 +4927,19 @@
         <v>229786</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>203304</v>
+        <v>202129</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>264347</v>
+        <v>263881</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0968720766452747</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08570785106726227</v>
+        <v>0.08521265671454062</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1114420324937965</v>
+        <v>0.1112457785333691</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>593247</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>558250</v>
+        <v>562119</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>623695</v>
+        <v>627074</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5308406741473665</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.499525351063482</v>
+        <v>0.5029875337142791</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5580859531138292</v>
+        <v>0.5611090318418276</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>730</v>
@@ -4977,19 +4977,19 @@
         <v>756941</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>720986</v>
+        <v>720385</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>793259</v>
+        <v>790405</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.603384664912595</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5747232851818067</v>
+        <v>0.5742445785597247</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6323351221925918</v>
+        <v>0.6300601703486166</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1293</v>
@@ -4998,19 +4998,19 @@
         <v>1350189</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1303251</v>
+        <v>1300337</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1397201</v>
+        <v>1400586</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5692065374880008</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5494188250838918</v>
+        <v>0.5481904756369113</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5890256665475672</v>
+        <v>0.5904527398211444</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>369078</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>337428</v>
+        <v>335592</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>402728</v>
+        <v>399613</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3302526822209373</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3019322581101944</v>
+        <v>0.3002895025957597</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3603632573238682</v>
+        <v>0.357576018540812</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>347</v>
@@ -5048,19 +5048,19 @@
         <v>387278</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>354787</v>
+        <v>355225</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>420706</v>
+        <v>427563</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3087131637989621</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2828129677511093</v>
+        <v>0.2831624628214198</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3353595600588846</v>
+        <v>0.340825727508636</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>700</v>
@@ -5069,19 +5069,19 @@
         <v>756356</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>709267</v>
+        <v>711890</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>803671</v>
+        <v>806518</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3188612187587883</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2990097915774445</v>
+        <v>0.3001153351277397</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3388080258965473</v>
+        <v>0.3400082950899539</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>29250</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>20592</v>
+        <v>19146</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>42238</v>
+        <v>41387</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03231984233046502</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02275286879340587</v>
+        <v>0.02115489783728563</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04667082536267526</v>
+        <v>0.04573061773243108</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -5194,19 +5194,19 @@
         <v>5304</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1724</v>
+        <v>1783</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12466</v>
+        <v>12982</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.005297841225803919</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.001722324697105294</v>
+        <v>0.001781406358154398</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01245207739932249</v>
+        <v>0.01296727978824066</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>33</v>
@@ -5215,19 +5215,19 @@
         <v>34554</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>24116</v>
+        <v>23640</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>48268</v>
+        <v>49163</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01812768710026066</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01265166551431423</v>
+        <v>0.01240188308310068</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02532224090724545</v>
+        <v>0.0257918252901425</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>103683</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>82739</v>
+        <v>82950</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>121806</v>
+        <v>122345</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1145645212900695</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0914219728238332</v>
+        <v>0.09165580420578202</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1345887402067588</v>
+        <v>0.1351852644701634</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>68</v>
@@ -5265,19 +5265,19 @@
         <v>69144</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54606</v>
+        <v>53669</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>86471</v>
+        <v>85505</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06906690345285206</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05454507012289064</v>
+        <v>0.05360882053740484</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08637484716946164</v>
+        <v>0.08541006325470904</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>165</v>
@@ -5286,19 +5286,19 @@
         <v>172827</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>149015</v>
+        <v>147842</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>198364</v>
+        <v>201492</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09066883523597766</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07817655037723724</v>
+        <v>0.0775609522974174</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.104066029677742</v>
+        <v>0.1057069665664254</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>451473</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>421612</v>
+        <v>421329</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>480685</v>
+        <v>481869</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4988542922931669</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4658589065796926</v>
+        <v>0.4655470246511195</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5311323935008303</v>
+        <v>0.5324397846519029</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>610</v>
@@ -5336,19 +5336,19 @@
         <v>639153</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>606797</v>
+        <v>607614</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>668672</v>
+        <v>668637</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.638440196347753</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6061195280874347</v>
+        <v>0.606936536648944</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6679262500927994</v>
+        <v>0.6678905124579407</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1048</v>
@@ -5357,19 +5357,19 @@
         <v>1090626</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1046346</v>
+        <v>1044050</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1129587</v>
+        <v>1137324</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5721658435220426</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5489355783008162</v>
+        <v>0.5477308364814841</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5926053563745091</v>
+        <v>0.596664505503714</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>320614</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>293118</v>
+        <v>291332</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>351103</v>
+        <v>347535</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3542613440862986</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3238796381388885</v>
+        <v>0.3219071060438086</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.387950117585021</v>
+        <v>0.384008480089556</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>263</v>
@@ -5407,19 +5407,19 @@
         <v>287516</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>259139</v>
+        <v>259258</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>317383</v>
+        <v>320145</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.287195058973591</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2588497311513677</v>
+        <v>0.2589685220410666</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3170288987123566</v>
+        <v>0.3197873555758926</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>578</v>
@@ -5428,19 +5428,19 @@
         <v>608129</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>568425</v>
+        <v>566216</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>653218</v>
+        <v>648989</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3190376341417191</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2982080941499578</v>
+        <v>0.2970491159070577</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3426918951220939</v>
+        <v>0.3404731775430588</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>16948</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9863</v>
+        <v>9699</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27204</v>
+        <v>26755</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.020826002889416</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01211932402437383</v>
+        <v>0.01191823616322162</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03342846995962116</v>
+        <v>0.03287586634541384</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -5553,19 +5553,19 @@
         <v>3738</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1010</v>
+        <v>891</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9470</v>
+        <v>8999</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.00487577636727551</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001317647235243205</v>
+        <v>0.001161925837927327</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01235203512369012</v>
+        <v>0.01173835263794747</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>20</v>
@@ -5574,19 +5574,19 @@
         <v>20687</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>12523</v>
+        <v>12752</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>30684</v>
+        <v>31007</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01308880845130545</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00792363349836989</v>
+        <v>0.008068600534181064</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01941460843721401</v>
+        <v>0.01961907955590221</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>96267</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>79582</v>
+        <v>79107</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>118255</v>
+        <v>118666</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1182918091265046</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09778921341491489</v>
+        <v>0.09720572692394715</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1453098721516839</v>
+        <v>0.1458147010064099</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>56</v>
@@ -5624,19 +5624,19 @@
         <v>57274</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>43272</v>
+        <v>43754</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>73676</v>
+        <v>75572</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0747050638695814</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05644153035259433</v>
+        <v>0.05707081227512063</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.09609983002445464</v>
+        <v>0.09857242208244826</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>147</v>
@@ -5645,19 +5645,19 @@
         <v>153541</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>132251</v>
+        <v>133029</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>179121</v>
+        <v>180083</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.09714859072085461</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.08367824635010085</v>
+        <v>0.08417051448125122</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1133340185125767</v>
+        <v>0.1139421969323679</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>385553</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>358495</v>
+        <v>357462</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>415257</v>
+        <v>415322</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4737612757421004</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4405138954532108</v>
+        <v>0.4392444383993815</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5102620614349602</v>
+        <v>0.5103410572750082</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>425</v>
@@ -5695,19 +5695,19 @@
         <v>443174</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>417677</v>
+        <v>413564</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>471345</v>
+        <v>470745</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5780562002160319</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5447990054943794</v>
+        <v>0.5394340930849637</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6148018247343089</v>
+        <v>0.6140187599884942</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>793</v>
@@ -5716,19 +5716,19 @@
         <v>828726</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>785086</v>
+        <v>789638</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>868927</v>
+        <v>870337</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5243530405952663</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4967407483536335</v>
+        <v>0.4996208591370148</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5497885837655138</v>
+        <v>0.5506807710015381</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>315044</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>286879</v>
+        <v>286911</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>341859</v>
+        <v>343614</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.387120912241979</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3525126924030135</v>
+        <v>0.3525515569964161</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4200712859620669</v>
+        <v>0.4222273725967904</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>239</v>
@@ -5766,19 +5766,19 @@
         <v>262477</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>235237</v>
+        <v>235673</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>287721</v>
+        <v>291643</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3423629595471112</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3068321547481982</v>
+        <v>0.3074019250430086</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3752909256372413</v>
+        <v>0.3804060032159074</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>541</v>
@@ -5787,19 +5787,19 @@
         <v>577520</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>538135</v>
+        <v>538151</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>618992</v>
+        <v>615193</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3654095602325736</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3404894521843341</v>
+        <v>0.3404997538223503</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3916495771779235</v>
+        <v>0.3892461221304381</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>14816</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8481</v>
+        <v>8092</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26609</v>
+        <v>24281</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02935948860732286</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01680592435251718</v>
+        <v>0.01603541479954947</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05273054992929564</v>
+        <v>0.04811676357027366</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6509</v>
+        <v>6563</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.003830750983575562</v>
@@ -5924,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01332029661382699</v>
+        <v>0.01343025656272162</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -5933,19 +5933,19 @@
         <v>16687</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8867</v>
+        <v>10084</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>27308</v>
+        <v>27700</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01680037878597841</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008927054808865045</v>
+        <v>0.01015257454334502</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02749256224343731</v>
+        <v>0.02788790358826191</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>60414</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>46362</v>
+        <v>46644</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>77699</v>
+        <v>76463</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.119720127309262</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09187516622325748</v>
+        <v>0.09243330337571862</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1539749177225485</v>
+        <v>0.1515250410534587</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>32</v>
@@ -5983,19 +5983,19 @@
         <v>33746</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>24072</v>
+        <v>23649</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>48949</v>
+        <v>46637</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06905943779438233</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04926284540196484</v>
+        <v>0.04839736533403046</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1001717247854937</v>
+        <v>0.09543954686360193</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>87</v>
@@ -6004,19 +6004,19 @@
         <v>94160</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>76333</v>
+        <v>75586</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>116143</v>
+        <v>114484</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09479711025218068</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07684988203329783</v>
+        <v>0.07609742083819034</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1169294630508908</v>
+        <v>0.115259198534572</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>211293</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>188728</v>
+        <v>188913</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>234678</v>
+        <v>235330</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4187130862211508</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3739969621601197</v>
+        <v>0.3743643711128884</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4650556930342527</v>
+        <v>0.4663474212039047</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>274</v>
@@ -6054,19 +6054,19 @@
         <v>291214</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>268264</v>
+        <v>266761</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>312879</v>
+        <v>313327</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5959542316733456</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5489881629808534</v>
+        <v>0.5459127036573388</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6402900646045625</v>
+        <v>0.6412067950234918</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>468</v>
@@ -6075,19 +6075,19 @@
         <v>502507</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>468519</v>
+        <v>468603</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>532472</v>
+        <v>535048</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5059085850116724</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4716905688055353</v>
+        <v>0.4717753895000953</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.536076603222427</v>
+        <v>0.5386696375360832</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>218102</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>195348</v>
+        <v>194518</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>241453</v>
+        <v>241590</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4322072978622644</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3871154984028942</v>
+        <v>0.3854717170819306</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4784812173320052</v>
+        <v>0.4787531127840712</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>146</v>
@@ -6125,19 +6125,19 @@
         <v>161820</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>141539</v>
+        <v>141686</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>182763</v>
+        <v>185987</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3311555795486966</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2896529117487193</v>
+        <v>0.2899535543087434</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3740155338213311</v>
+        <v>0.3806126235585548</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>353</v>
@@ -6146,19 +6146,19 @@
         <v>379922</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>351672</v>
+        <v>349207</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>412661</v>
+        <v>411830</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3824939259501685</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3540525752318327</v>
+        <v>0.3515705396437966</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4154540901700745</v>
+        <v>0.4146175064308681</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>90528</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>72082</v>
+        <v>74435</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>108981</v>
+        <v>113111</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02709607853863138</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02157475586444093</v>
+        <v>0.02227914991160211</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03261901042981908</v>
+        <v>0.03385514286504535</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>17</v>
@@ -6271,19 +6271,19 @@
         <v>17123</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>10410</v>
+        <v>10190</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>27813</v>
+        <v>27113</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.004877021808571746</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.002965052619830224</v>
+        <v>0.002902409573265709</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.007921971438582124</v>
+        <v>0.007722444079717745</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>101</v>
@@ -6292,19 +6292,19 @@
         <v>107651</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>89519</v>
+        <v>86198</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>132027</v>
+        <v>130919</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01571106900879738</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0130647727548736</v>
+        <v>0.01258006554253065</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01926848688927713</v>
+        <v>0.01910681570669444</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>386086</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>351953</v>
+        <v>348138</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>427620</v>
+        <v>425937</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1155595352938679</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1053429759996503</v>
+        <v>0.1042013316480419</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1279911131037663</v>
+        <v>0.1274872239192472</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>256</v>
@@ -6342,19 +6342,19 @@
         <v>264227</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>233131</v>
+        <v>233102</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>297263</v>
+        <v>295490</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07525857978015436</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06640160108620399</v>
+        <v>0.06639348307605691</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08466797030304227</v>
+        <v>0.08416300512033029</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>613</v>
@@ -6363,19 +6363,19 @@
         <v>650314</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>604124</v>
+        <v>604246</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>706724</v>
+        <v>699264</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09490938942316997</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08816826112190082</v>
+        <v>0.08818617956184184</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1031420962344675</v>
+        <v>0.1020534224165469</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>1641565</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1581175</v>
+        <v>1584418</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1702667</v>
+        <v>1706922</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4913369800825389</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4732614806916058</v>
+        <v>0.4742322128641246</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5096254402969419</v>
+        <v>0.5108988187352925</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2039</v>
@@ -6413,19 +6413,19 @@
         <v>2130483</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2066077</v>
+        <v>2071189</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2184446</v>
+        <v>2194000</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.606815504381942</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5884709310556433</v>
+        <v>0.5899270166603257</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6221856160224764</v>
+        <v>0.6249065815645261</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3602</v>
@@ -6434,19 +6434,19 @@
         <v>3772048</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3692887</v>
+        <v>3690703</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3853477</v>
+        <v>3859611</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.550507993308371</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5389548130848162</v>
+        <v>0.5386360993862268</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5623920480588491</v>
+        <v>0.563287181946864</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>1222837</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1163513</v>
+        <v>1164319</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1280125</v>
+        <v>1280410</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3660074060849618</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3482510451623636</v>
+        <v>0.3484922828330707</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3831542542642526</v>
+        <v>0.3832395271448111</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>995</v>
@@ -6484,19 +6484,19 @@
         <v>1099091</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1047764</v>
+        <v>1041828</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1160758</v>
+        <v>1158553</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3130488940293319</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2984296313025577</v>
+        <v>0.2967388449430016</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3306132056353712</v>
+        <v>0.3299851581995011</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2172</v>
@@ -6505,19 +6505,19 @@
         <v>2321928</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2239719</v>
+        <v>2231625</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2394483</v>
+        <v>2396852</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3388715482596617</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3268737208141639</v>
+        <v>0.3256924258785751</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3494605782446181</v>
+        <v>0.3498062658343219</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>47183</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33685</v>
+        <v>34529</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65043</v>
+        <v>65666</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0963600022882402</v>
+        <v>0.09636000228824018</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06879403359540869</v>
+        <v>0.07051741753292376</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1328338057268791</v>
+        <v>0.1341065263947139</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -6870,19 +6870,19 @@
         <v>15885</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10266</v>
+        <v>10320</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23760</v>
+        <v>24415</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02578260264604818</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01666299200674456</v>
+        <v>0.01674920382121761</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03856332705406032</v>
+        <v>0.03962781831557394</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>61</v>
@@ -6891,19 +6891,19 @@
         <v>63068</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>48396</v>
+        <v>48163</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>82467</v>
+        <v>84357</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05703538872440916</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04376617113190426</v>
+        <v>0.04355543594758043</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07457857967230438</v>
+        <v>0.07628772718682279</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>122915</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>101738</v>
+        <v>101290</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>143865</v>
+        <v>144471</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2510228974003309</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2077756756407808</v>
+        <v>0.2068597095716762</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2938085044962879</v>
+        <v>0.2950463674611781</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>137</v>
@@ -6941,19 +6941,19 @@
         <v>109189</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>93364</v>
+        <v>93308</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>128298</v>
+        <v>128495</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1772206970866296</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1515359956864227</v>
+        <v>0.1514449893935103</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2082347229810181</v>
+        <v>0.2085543732170348</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>241</v>
@@ -6962,19 +6962,19 @@
         <v>232104</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>202784</v>
+        <v>207069</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>258339</v>
+        <v>262725</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2099014757807993</v>
+        <v>0.2099014757807994</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1833863963996236</v>
+        <v>0.1872611746211859</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.233627534995817</v>
+        <v>0.237593098368141</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>154705</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>131883</v>
+        <v>133306</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>178434</v>
+        <v>178397</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3159466107946531</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.269339515124969</v>
+        <v>0.2722445965911163</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3644074942536999</v>
+        <v>0.3643317415347289</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>361</v>
@@ -7012,19 +7012,19 @@
         <v>271388</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>250363</v>
+        <v>248029</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>295496</v>
+        <v>293631</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.4404794302578148</v>
+        <v>0.4404794302578149</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4063535300024319</v>
+        <v>0.4025656385406579</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.479607662102404</v>
+        <v>0.4765803281599265</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>497</v>
@@ -7033,19 +7033,19 @@
         <v>426093</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>394385</v>
+        <v>393798</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>458616</v>
+        <v>461412</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.3853343330149482</v>
+        <v>0.3853343330149481</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3566598080853052</v>
+        <v>0.3561282546480674</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4147461543194237</v>
+        <v>0.4172744463354336</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>164852</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>142294</v>
+        <v>143526</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>189461</v>
+        <v>188877</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3366704895167758</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2906003399365649</v>
+        <v>0.2931175789881373</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3869269738088356</v>
+        <v>0.3857345707022506</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>331</v>
@@ -7083,19 +7083,19 @@
         <v>219657</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>198867</v>
+        <v>199962</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>240019</v>
+        <v>242005</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3565172700095072</v>
+        <v>0.3565172700095073</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3227738846377937</v>
+        <v>0.3245505711556626</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3895657427125934</v>
+        <v>0.3927894291839333</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>502</v>
@@ -7104,19 +7104,19 @@
         <v>384510</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>356268</v>
+        <v>353528</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>418406</v>
+        <v>415385</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3477288024798433</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3221888288442846</v>
+        <v>0.3197103037217665</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3783823724867664</v>
+        <v>0.3756505499474423</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>83571</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>66857</v>
+        <v>64876</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>104559</v>
+        <v>103373</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0876607670893163</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07012931032419366</v>
+        <v>0.06805158671145915</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1096761770807036</v>
+        <v>0.1084324958126609</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>26</v>
@@ -7229,19 +7229,19 @@
         <v>20068</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>13251</v>
+        <v>12958</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>29477</v>
+        <v>28903</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.01807258156216645</v>
+        <v>0.01807258156216644</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01193332097471759</v>
+        <v>0.01166989904318783</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02654614498949322</v>
+        <v>0.02602950054686463</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>102</v>
@@ -7250,19 +7250,19 @@
         <v>103638</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>84689</v>
+        <v>84125</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>123142</v>
+        <v>125267</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05021884796585072</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04103674733036986</v>
+        <v>0.04076332550931534</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0596693491929883</v>
+        <v>0.0606992133060904</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>247985</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>216994</v>
+        <v>220293</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>278344</v>
+        <v>282954</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2601221025118323</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2276143105681545</v>
+        <v>0.2310748990550984</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2919664906086129</v>
+        <v>0.2968017311520522</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>273</v>
@@ -7300,19 +7300,19 @@
         <v>204915</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>181994</v>
+        <v>183291</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>230020</v>
+        <v>229236</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1845429514697015</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1639003489247986</v>
+        <v>0.1650684327348174</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2071523929354104</v>
+        <v>0.2064460760841948</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>487</v>
@@ -7321,19 +7321,19 @@
         <v>452900</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>412905</v>
+        <v>415096</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>495426</v>
+        <v>489978</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2194567447459571</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2000764260639166</v>
+        <v>0.2011382594250824</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2400626798146858</v>
+        <v>0.2374230471624511</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>336930</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>305134</v>
+        <v>303012</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>370025</v>
+        <v>368517</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3534193682992103</v>
+        <v>0.3534193682992102</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3200675490617095</v>
+        <v>0.317841984633614</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.38813498360502</v>
+        <v>0.3865523987838857</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>781</v>
@@ -7371,19 +7371,19 @@
         <v>549767</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>522793</v>
+        <v>520161</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>580699</v>
+        <v>576754</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.4951104619052983</v>
+        <v>0.4951104619052982</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4708183673772181</v>
+        <v>0.4684481076277345</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5229672684910135</v>
+        <v>0.5194144710072653</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1092</v>
@@ -7392,19 +7392,19 @@
         <v>886696</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>841418</v>
+        <v>842364</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>931051</v>
+        <v>929508</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4296562528669897</v>
+        <v>0.4296562528669896</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4077162572400992</v>
+        <v>0.4081746907962606</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4511488331999393</v>
+        <v>0.4504011982820374</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>284856</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>256763</v>
+        <v>255840</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>317953</v>
+        <v>317522</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2987977620996412</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2693292650722146</v>
+        <v>0.2683610606385485</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3335141658297222</v>
+        <v>0.3330618773499123</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>522</v>
@@ -7442,19 +7442,19 @@
         <v>335643</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>309994</v>
+        <v>310321</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>362928</v>
+        <v>363065</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.3022740050628339</v>
+        <v>0.3022740050628338</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.279175325979237</v>
+        <v>0.2794695742302392</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3268464140291047</v>
+        <v>0.3269701078912456</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>829</v>
@@ -7463,19 +7463,19 @@
         <v>620499</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>581663</v>
+        <v>578263</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>663132</v>
+        <v>660002</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3006681544212026</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2818498688640282</v>
+        <v>0.2802021175512727</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3213263643402922</v>
+        <v>0.319809753832531</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>80199</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>63538</v>
+        <v>63231</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>101527</v>
+        <v>101673</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07741909821499238</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06133532571261082</v>
+        <v>0.06103938836017029</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09800826786314505</v>
+        <v>0.09814865651864939</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>29</v>
@@ -7588,19 +7588,19 @@
         <v>20949</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14763</v>
+        <v>13758</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>29551</v>
+        <v>30009</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02002252413070814</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01410999772867471</v>
+        <v>0.01314971218433486</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02824424361720202</v>
+        <v>0.02868205560807511</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>101</v>
@@ -7609,19 +7609,19 @@
         <v>101148</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>80510</v>
+        <v>81976</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>121925</v>
+        <v>123422</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.0485781827733298</v>
+        <v>0.04857818277332982</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0386666596085364</v>
+        <v>0.03937052571611556</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05855699634738577</v>
+        <v>0.05927588743313589</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>203120</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>175843</v>
+        <v>172909</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>233419</v>
+        <v>229819</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1960789380483767</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1697482801388447</v>
+        <v>0.1669155503918055</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2253281038674219</v>
+        <v>0.2218526625783759</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>246</v>
@@ -7659,19 +7659,19 @@
         <v>169507</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>149369</v>
+        <v>150638</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>191638</v>
+        <v>190774</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1620133372641862</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1427649636624489</v>
+        <v>0.1439785536311017</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1831658556119523</v>
+        <v>0.1823401964917075</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>443</v>
@@ -7680,19 +7680,19 @@
         <v>372627</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>339776</v>
+        <v>339306</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>406848</v>
+        <v>406823</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1789614858770408</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1631845286020321</v>
+        <v>0.162958716837761</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.195396879278315</v>
+        <v>0.195384766315396</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>372973</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>342409</v>
+        <v>342299</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>408428</v>
+        <v>407951</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3600444416622658</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3305399390960877</v>
+        <v>0.3304345216634625</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3942713242780981</v>
+        <v>0.3938108106349796</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>687</v>
@@ -7730,19 +7730,19 @@
         <v>473285</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>443081</v>
+        <v>446722</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>501473</v>
+        <v>503497</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4523610763054838</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4234922596513147</v>
+        <v>0.4269719455730566</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4793027368287579</v>
+        <v>0.4812370545425927</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1063</v>
@@ -7751,19 +7751,19 @@
         <v>846257</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>806973</v>
+        <v>801976</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>891471</v>
+        <v>894138</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4064321624641059</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3875653356324308</v>
+        <v>0.3851653865755333</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4281471513801111</v>
+        <v>0.4294277622412235</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>379616</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>345734</v>
+        <v>342860</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>416380</v>
+        <v>413437</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.366457522074365</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3337496726085349</v>
+        <v>0.3309759566951553</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4019475614034135</v>
+        <v>0.3991059085344144</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>552</v>
@@ -7801,19 +7801,19 @@
         <v>382514</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>356979</v>
+        <v>357397</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>413138</v>
+        <v>411703</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3656030622996219</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3411967044123407</v>
+        <v>0.3415965755184091</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3948733193317772</v>
+        <v>0.3935017053048017</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>929</v>
@@ -7822,19 +7822,19 @@
         <v>762130</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>719937</v>
+        <v>716187</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>804908</v>
+        <v>808567</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3660281688855235</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3457644740517632</v>
+        <v>0.3439633538339723</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.386573441070469</v>
+        <v>0.3883308965896414</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>42720</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>28411</v>
+        <v>29885</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>58280</v>
+        <v>61253</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0439819297639358</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02925086670203098</v>
+        <v>0.0307682104429342</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06000243556501807</v>
+        <v>0.06306249343520708</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -7947,19 +7947,19 @@
         <v>20019</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12434</v>
+        <v>12850</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>30559</v>
+        <v>31558</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02219218518449414</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01378348218289241</v>
+        <v>0.01424501436292152</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03387660282799072</v>
+        <v>0.03498383783195841</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>57</v>
@@ -7968,19 +7968,19 @@
         <v>62739</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>48374</v>
+        <v>47123</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>84071</v>
+        <v>80065</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03348968327851107</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02582163507916229</v>
+        <v>0.02515399311934547</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04487659155808673</v>
+        <v>0.04273823659193829</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>155986</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>133152</v>
+        <v>134125</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>181199</v>
+        <v>181593</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1605947371449455</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1370861032398</v>
+        <v>0.1380881095674512</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1865530263150226</v>
+        <v>0.1869587057572755</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>186</v>
@@ -8018,19 +8018,19 @@
         <v>132331</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>115968</v>
+        <v>115428</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>153322</v>
+        <v>152088</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1466969642740354</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1285576344951115</v>
+        <v>0.1279584756753589</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1699670913444781</v>
+        <v>0.1685983791880555</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>338</v>
@@ -8039,19 +8039,19 @@
         <v>288317</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>257845</v>
+        <v>255567</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>323088</v>
+        <v>321103</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.153902650506279</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1376366897046867</v>
+        <v>0.1364211195688343</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1724636321507078</v>
+        <v>0.1714039303803698</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>372551</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>338289</v>
+        <v>337961</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>406280</v>
+        <v>406877</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3835591110817809</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3482847122776849</v>
+        <v>0.3479468311962324</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4182842448768099</v>
+        <v>0.4188989334737692</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>673</v>
@@ -8089,19 +8089,19 @@
         <v>424036</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>398555</v>
+        <v>395411</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>452536</v>
+        <v>449486</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.4700700543382667</v>
+        <v>0.4700700543382668</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4418222935795021</v>
+        <v>0.4383372065728388</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5016637776566231</v>
+        <v>0.4982823087500132</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1049</v>
@@ -8110,19 +8110,19 @@
         <v>796587</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>755166</v>
+        <v>751892</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>842967</v>
+        <v>840591</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4252160537331436</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.403105206732033</v>
+        <v>0.4013575779435936</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4499732696148303</v>
+        <v>0.4487051191744511</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>400044</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>368618</v>
+        <v>366669</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>433944</v>
+        <v>435537</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4118642220093378</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3795090839143169</v>
+        <v>0.3775030501133158</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.446766092615815</v>
+        <v>0.448405792953267</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>429</v>
@@ -8160,19 +8160,19 @@
         <v>325684</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>300035</v>
+        <v>296926</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>353479</v>
+        <v>353169</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3610407962032038</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3326068643350498</v>
+        <v>0.3291606881251313</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3918527832455171</v>
+        <v>0.3915098570992614</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>811</v>
@@ -8181,19 +8181,19 @@
         <v>725728</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>682569</v>
+        <v>682469</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>769623</v>
+        <v>771306</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3873916124820664</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3643530868687054</v>
+        <v>0.3642998656490096</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.410822560416116</v>
+        <v>0.4117207764082869</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>253673</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>223329</v>
+        <v>217459</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>289597</v>
+        <v>290375</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0735238947203696</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0647292328613867</v>
+        <v>0.06302797808294272</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08393625021007396</v>
+        <v>0.08416170130093509</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>101</v>
@@ -8306,19 +8306,19 @@
         <v>76920</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>64156</v>
+        <v>63571</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>95277</v>
+        <v>94447</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02093164955125315</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0174581810434028</v>
+        <v>0.01729899750497299</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0259267330182032</v>
+        <v>0.02570102055662792</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>321</v>
@@ -8327,19 +8327,19 @@
         <v>330593</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>295427</v>
+        <v>291964</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>372478</v>
+        <v>370969</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.04639872957603502</v>
+        <v>0.04639872957603501</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04146323228107891</v>
+        <v>0.04097717647272538</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05227735914118355</v>
+        <v>0.05206549391787831</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>730005</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>677782</v>
+        <v>680480</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>785008</v>
+        <v>780453</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.211583165687246</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1964468559078073</v>
+        <v>0.1972288922501392</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2275249300490107</v>
+        <v>0.2262047346095536</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>842</v>
@@ -8377,19 +8377,19 @@
         <v>615942</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>579608</v>
+        <v>577421</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>660547</v>
+        <v>659482</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1676108178940511</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1577234997116485</v>
+        <v>0.1571284174672275</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1797487343483032</v>
+        <v>0.1794587283059768</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1509</v>
@@ -8398,19 +8398,19 @@
         <v>1345948</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1279841</v>
+        <v>1274216</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1412173</v>
+        <v>1417025</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1889038297539904</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1796257288894415</v>
+        <v>0.1788362510641828</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1981985096506257</v>
+        <v>0.1988794624032165</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>1237158</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1175271</v>
+        <v>1172752</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1301516</v>
+        <v>1299175</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3585752991579524</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3406378812424806</v>
+        <v>0.3399080617917569</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3772287191135409</v>
+        <v>0.3765502193831478</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2502</v>
@@ -8448,19 +8448,19 @@
         <v>1718476</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1663259</v>
+        <v>1663337</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1773729</v>
+        <v>1776192</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4676332588958544</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4526076229726531</v>
+        <v>0.4526287297132815</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4826687274256849</v>
+        <v>0.4833389593614786</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3701</v>
@@ -8469,19 +8469,19 @@
         <v>2955634</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2876437</v>
+        <v>2882691</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3031332</v>
+        <v>3046296</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.4148234239277222</v>
+        <v>0.4148234239277221</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4037080724259824</v>
+        <v>0.4045858656698422</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4254475845609092</v>
+        <v>0.4275477520290984</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>1229369</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1164463</v>
+        <v>1170070</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1291268</v>
+        <v>1289142</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.356317640434432</v>
+        <v>0.3563176404344319</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3375055408904243</v>
+        <v>0.3391307065745086</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.374258479216614</v>
+        <v>0.3736422382779326</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1834</v>
@@ -8519,19 +8519,19 @@
         <v>1263498</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1215007</v>
+        <v>1215979</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1318670</v>
+        <v>1313709</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3438242736588414</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.330628881039674</v>
+        <v>0.3308932913106808</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3588375982583408</v>
+        <v>0.3574876039558996</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>3071</v>
@@ -8540,19 +8540,19 @@
         <v>2492867</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2419113</v>
+        <v>2416450</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2569508</v>
+        <v>2577841</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.3498740167422522</v>
+        <v>0.3498740167422523</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3395226068907112</v>
+        <v>0.3391489258401229</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.360630522699105</v>
+        <v>0.3618000831368752</v>
       </c>
     </row>
     <row r="28">
